--- a/plotly-py-viz-fastapi/datasets/population_based_on_origin_city.xlsx
+++ b/plotly-py-viz-fastapi/datasets/population_based_on_origin_city.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="df_origin_city" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="df_origin_city" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/plotly-py-viz-fastapi/datasets/population_based_on_origin_city.xlsx
+++ b/plotly-py-viz-fastapi/datasets/population_based_on_origin_city.xlsx
@@ -689,10 +689,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>toplam</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>83801834</v>
